--- a/Intermediate/Day4/1VEnvAndPipInstallDemos/Data/students.xlsx
+++ b/Intermediate/Day4/1VEnvAndPipInstallDemos/Data/students.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Mar2019" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -403,10 +403,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.6"/>
@@ -415,7 +415,8 @@
     <col bestFit="1" customWidth="1" max="2" min="2" style="1" width="7"/>
     <col bestFit="1" customWidth="1" max="5" min="3" style="1" width="8.5546875"/>
     <col bestFit="1" customWidth="1" max="6" min="6" style="1" width="6.44140625"/>
-    <col customWidth="1" max="16384" min="7" style="1" width="8.88671875"/>
+    <col customWidth="1" max="7" min="7" style="1" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="8" style="1" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -450,7 +451,7 @@
         </is>
       </c>
     </row>
-    <row r="2">
+    <row customHeight="1" ht="14.4" r="2">
       <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
@@ -471,8 +472,11 @@
       <c r="F2" s="2" t="n">
         <v>263</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="H2" t="n">
+        <v>263</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="3">
       <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
@@ -493,8 +497,11 @@
       <c r="F3" s="2" t="n">
         <v>264</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="H3" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="4">
       <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
@@ -515,8 +522,11 @@
       <c r="F4" s="2" t="n">
         <v>264</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="H4" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="5">
       <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
@@ -537,8 +547,11 @@
       <c r="F5" s="2" t="n">
         <v>264</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="H5" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="6">
       <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
@@ -559,8 +572,11 @@
       <c r="F6" s="2" t="n">
         <v>264</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="H6" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="7">
       <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
@@ -581,8 +597,11 @@
       <c r="F7" s="2" t="n">
         <v>264</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="H7" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="8">
       <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
@@ -603,8 +622,11 @@
       <c r="F8" s="2" t="n">
         <v>264</v>
       </c>
-    </row>
-    <row r="9">
+      <c r="H8" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="9">
       <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
@@ -625,8 +647,11 @@
       <c r="F9" s="2" t="n">
         <v>264</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="H9" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="10">
       <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
@@ -647,8 +672,11 @@
       <c r="F10" s="2" t="n">
         <v>264</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="H10" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="11">
       <c r="A11" s="3" t="n">
         <v>10</v>
       </c>
@@ -669,8 +697,11 @@
       <c r="F11" s="2" t="n">
         <v>264</v>
       </c>
-    </row>
-    <row r="12">
+      <c r="H11" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="12">
       <c r="A12" s="3" t="n">
         <v>11</v>
       </c>
@@ -691,8 +722,11 @@
       <c r="F12" s="2" t="n">
         <v>264</v>
       </c>
-    </row>
-    <row r="13">
+      <c r="H12" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="13">
       <c r="A13" s="3" t="n">
         <v>12</v>
       </c>
@@ -713,8 +747,11 @@
       <c r="F13" s="2" t="n">
         <v>264</v>
       </c>
-    </row>
-    <row r="14">
+      <c r="H13" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="14">
       <c r="A14" s="3" t="n">
         <v>13</v>
       </c>
@@ -735,8 +772,11 @@
       <c r="F14" s="2" t="n">
         <v>264</v>
       </c>
-    </row>
-    <row r="15">
+      <c r="H14" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="15">
       <c r="A15" s="3" t="n">
         <v>14</v>
       </c>
@@ -757,8 +797,11 @@
       <c r="F15" s="2" t="n">
         <v>264</v>
       </c>
-    </row>
-    <row r="16">
+      <c r="H15" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="16">
       <c r="A16" s="3" t="n">
         <v>15</v>
       </c>
@@ -779,8 +822,11 @@
       <c r="F16" s="2" t="n">
         <v>264</v>
       </c>
-    </row>
-    <row r="17">
+      <c r="H16" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="17">
       <c r="A17" s="3" t="n">
         <v>16</v>
       </c>
@@ -801,8 +847,11 @@
       <c r="F17" s="2" t="n">
         <v>264</v>
       </c>
-    </row>
-    <row r="18">
+      <c r="H17" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="18">
       <c r="A18" s="3" t="n">
         <v>17</v>
       </c>
@@ -823,8 +872,11 @@
       <c r="F18" s="2" t="n">
         <v>264</v>
       </c>
-    </row>
-    <row r="19">
+      <c r="H18" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="19">
       <c r="A19" s="3" t="n">
         <v>18</v>
       </c>
@@ -845,8 +897,11 @@
       <c r="F19" s="2" t="n">
         <v>264</v>
       </c>
-    </row>
-    <row r="20">
+      <c r="H19" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="20">
       <c r="A20" s="3" t="n">
         <v>19</v>
       </c>
@@ -867,8 +922,11 @@
       <c r="F20" s="2" t="n">
         <v>264</v>
       </c>
-    </row>
-    <row r="21">
+      <c r="H20" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="21">
       <c r="A21" s="3" t="n">
         <v>20</v>
       </c>
@@ -889,8 +947,11 @@
       <c r="F21" s="2" t="n">
         <v>264</v>
       </c>
-    </row>
-    <row r="22">
+      <c r="H21" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="22">
       <c r="A22" s="3" t="n">
         <v>21</v>
       </c>
@@ -911,8 +972,11 @@
       <c r="F22" s="2" t="n">
         <v>264</v>
       </c>
-    </row>
-    <row r="23">
+      <c r="H22" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="23">
       <c r="A23" s="3" t="n">
         <v>22</v>
       </c>
@@ -933,8 +997,11 @@
       <c r="F23" s="2" t="n">
         <v>264</v>
       </c>
-    </row>
-    <row r="24">
+      <c r="H23" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="24">
       <c r="A24" s="3" t="n">
         <v>23</v>
       </c>
@@ -955,8 +1022,11 @@
       <c r="F24" s="2" t="n">
         <v>264</v>
       </c>
-    </row>
-    <row r="25">
+      <c r="H24" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="25">
       <c r="A25" s="3" t="n">
         <v>24</v>
       </c>
@@ -977,8 +1047,11 @@
       <c r="F25" s="2" t="n">
         <v>264</v>
       </c>
-    </row>
-    <row r="26">
+      <c r="H25" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="26">
       <c r="A26" s="3" t="n">
         <v>25</v>
       </c>
@@ -999,8 +1072,11 @@
       <c r="F26" s="2" t="n">
         <v>264</v>
       </c>
-    </row>
-    <row r="27">
+      <c r="H26" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="27">
       <c r="A27" s="3" t="n">
         <v>26</v>
       </c>
@@ -1019,6 +1095,9 @@
         <v>88</v>
       </c>
       <c r="F27" s="2" t="n">
+        <v>264</v>
+      </c>
+      <c r="H27" t="n">
         <v>264</v>
       </c>
     </row>
